--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8222645365536914</v>
+        <v>0.8804346223621609</v>
       </c>
       <c r="D2">
-        <v>0.8079880747296069</v>
+        <v>0.8620072575740449</v>
       </c>
       <c r="E2">
-        <v>0.6824571087014029</v>
+        <v>0.7570713489560053</v>
       </c>
       <c r="F2">
-        <v>0.4860749957357928</v>
+        <v>0.6119780666839594</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8222645365536914</v>
+        <v>0.8804346223621609</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9926462587580904</v>
+        <v>0.9932350104831833</v>
       </c>
       <c r="E3">
-        <v>0.8714221597595675</v>
+        <v>0.8910507358777964</v>
       </c>
       <c r="F3">
-        <v>0.6060478615235376</v>
+        <v>0.548277384886831</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8079880747296069</v>
+        <v>0.8620072575740449</v>
       </c>
       <c r="C4">
-        <v>0.9926462587580904</v>
+        <v>0.9932350104831833</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8530056293390262</v>
+        <v>0.8140666050637364</v>
       </c>
       <c r="F4">
-        <v>0.5926993637558111</v>
+        <v>0.5760571970857356</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6824571087014029</v>
+        <v>0.7570713489560053</v>
       </c>
       <c r="C5">
-        <v>0.8714221597595675</v>
+        <v>0.8910507358777964</v>
       </c>
       <c r="D5">
-        <v>0.8530056293390262</v>
+        <v>0.8140666050637364</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7234349077073965</v>
+        <v>0.6972358966290013</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4860749957357928</v>
+        <v>0.6119780666839594</v>
       </c>
       <c r="C6">
-        <v>0.6060478615235376</v>
+        <v>0.548277384886831</v>
       </c>
       <c r="D6">
-        <v>0.5926993637558111</v>
+        <v>0.5760571970857356</v>
       </c>
       <c r="E6">
-        <v>0.7234349077073965</v>
+        <v>0.6972358966290013</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2247565221832375</v>
+        <v>-0.1531898747556643</v>
       </c>
       <c r="D2">
-        <v>-0.2431567345199892</v>
+        <v>-0.1770470798264044</v>
       </c>
       <c r="E2">
-        <v>-0.4093618631577415</v>
+        <v>-0.3154524618924585</v>
       </c>
       <c r="F2">
-        <v>-0.6971054376896717</v>
+        <v>-0.5188368313714822</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2247565221832375</v>
+        <v>0.1531898747556643</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.009221490383580461</v>
+        <v>-0.008631406053872769</v>
       </c>
       <c r="E3">
-        <v>-0.1619390206360386</v>
+        <v>-0.1394887462470434</v>
       </c>
       <c r="F3">
-        <v>-0.5160639732393243</v>
+        <v>-0.6152242873740289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2431567345199892</v>
+        <v>0.1770470798264044</v>
       </c>
       <c r="C4">
-        <v>0.009221490383580461</v>
+        <v>0.008631406053872769</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.1853848921240672</v>
+        <v>-0.2396606877006016</v>
       </c>
       <c r="F4">
-        <v>-0.5352876815604073</v>
+        <v>-0.5725078924192584</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4093618631577415</v>
+        <v>0.3154524618924585</v>
       </c>
       <c r="C5">
-        <v>0.1619390206360386</v>
+        <v>0.1394887462470434</v>
       </c>
       <c r="D5">
-        <v>0.1853848921240672</v>
+        <v>0.2396606877006016</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3540797748294472</v>
+        <v>-0.397163346971767</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6971054376896717</v>
+        <v>0.5188368313714822</v>
       </c>
       <c r="C6">
-        <v>0.5160639732393243</v>
+        <v>0.6152242873740289</v>
       </c>
       <c r="D6">
-        <v>0.5352876815604073</v>
+        <v>0.5725078924192584</v>
       </c>
       <c r="E6">
-        <v>0.3540797748294472</v>
+        <v>0.397163346971767</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AREPD_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8804346223621609</v>
+        <v>0.4667127054774345</v>
       </c>
       <c r="D2">
-        <v>0.8620072575740449</v>
+        <v>0.04107996032614158</v>
       </c>
       <c r="E2">
-        <v>0.7570713489560053</v>
+        <v>0.01655959447313138</v>
       </c>
       <c r="F2">
-        <v>0.6119780666839594</v>
+        <v>0.1061428299913718</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8804346223621609</v>
+        <v>0.4667127054774345</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9932350104831833</v>
+        <v>0.3255982287752976</v>
       </c>
       <c r="E3">
-        <v>0.8910507358777964</v>
+        <v>0.1689856318863505</v>
       </c>
       <c r="F3">
-        <v>0.548277384886831</v>
+        <v>0.5053264475394896</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8620072575740449</v>
+        <v>0.04107996032614158</v>
       </c>
       <c r="C4">
-        <v>0.9932350104831833</v>
+        <v>0.3255982287752976</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8140666050637364</v>
+        <v>0.5140818164701657</v>
       </c>
       <c r="F4">
-        <v>0.5760571970857356</v>
+        <v>0.5914209936611385</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7570713489560053</v>
+        <v>0.01655959447313138</v>
       </c>
       <c r="C5">
-        <v>0.8910507358777964</v>
+        <v>0.1689856318863505</v>
       </c>
       <c r="D5">
-        <v>0.8140666050637364</v>
+        <v>0.5140818164701657</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6972358966290013</v>
+        <v>0.2778472228446374</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6119780666839594</v>
+        <v>0.1061428299913718</v>
       </c>
       <c r="C6">
-        <v>0.548277384886831</v>
+        <v>0.5053264475394896</v>
       </c>
       <c r="D6">
-        <v>0.5760571970857356</v>
+        <v>0.5914209936611385</v>
       </c>
       <c r="E6">
-        <v>0.6972358966290013</v>
+        <v>0.2778472228446374</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1531898747556643</v>
+        <v>-0.7406921309333628</v>
       </c>
       <c r="D2">
-        <v>-0.1770470798264044</v>
+        <v>-2.170000883174829</v>
       </c>
       <c r="E2">
-        <v>-0.3154524618924585</v>
+        <v>-2.594124047407846</v>
       </c>
       <c r="F2">
-        <v>-0.5188368313714822</v>
+        <v>-1.684900156403419</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1531898747556643</v>
+        <v>0.7406921309333628</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.008631406053872769</v>
+        <v>-1.005478477408604</v>
       </c>
       <c r="E3">
-        <v>-0.1394887462470434</v>
+        <v>-1.422222830047458</v>
       </c>
       <c r="F3">
-        <v>-0.6152242873740289</v>
+        <v>-0.6772193565925819</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1770470798264044</v>
+        <v>2.170000883174829</v>
       </c>
       <c r="C4">
-        <v>0.008631406053872769</v>
+        <v>1.005478477408604</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2396606877006016</v>
+        <v>-0.6632164860205257</v>
       </c>
       <c r="F4">
-        <v>-0.5725078924192584</v>
+        <v>0.5447268127473719</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3154524618924585</v>
+        <v>2.594124047407846</v>
       </c>
       <c r="C5">
-        <v>0.1394887462470434</v>
+        <v>1.422222830047458</v>
       </c>
       <c r="D5">
-        <v>0.2396606877006016</v>
+        <v>0.6632164860205257</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.397163346971767</v>
+        <v>1.112702611643624</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5188368313714822</v>
+        <v>1.684900156403419</v>
       </c>
       <c r="C6">
-        <v>0.6152242873740289</v>
+        <v>0.6772193565925819</v>
       </c>
       <c r="D6">
-        <v>0.5725078924192584</v>
+        <v>-0.5447268127473719</v>
       </c>
       <c r="E6">
-        <v>0.397163346971767</v>
+        <v>-1.112702611643624</v>
       </c>
       <c r="F6">
         <v>0</v>
